--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/15/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.584099999999998</v>
+        <v>-7.755599999999998</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.685000000000006</v>
+        <v>6.005000000000003</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>15.67089999999999</v>
+        <v>15.86019999999999</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.21060000000003</v>
+        <v>17.19310000000003</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.816600000000001</v>
+        <v>5.2077</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.257900000000005</v>
+        <v>9.365000000000004</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.219300000000002</v>
+        <v>9.096199999999998</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.5992</v>
+        <v>16.7485</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.332600000000001</v>
+        <v>5.193700000000002</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.182299999999993</v>
+        <v>-7.269199999999995</v>
       </c>
       <c r="E25" t="n">
-        <v>17.48090000000001</v>
+        <v>17.32210000000002</v>
       </c>
     </row>
     <row r="26">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.218700000000008</v>
+        <v>5.159600000000007</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.883300000000007</v>
+        <v>-8.765300000000005</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.102300000000003</v>
+        <v>5.007500000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.949700000000007</v>
+        <v>-8.751200000000004</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.061299999999999</v>
+        <v>-7.979700000000004</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.401299999999997</v>
+        <v>-7.300399999999994</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.3965</v>
+        <v>16.2934</v>
       </c>
     </row>
     <row r="51">
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.447499999999998</v>
+        <v>-7.376699999999996</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.5594</v>
+        <v>-7.616099999999998</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.9413</v>
+        <v>5.150499999999998</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.64470000000001</v>
+        <v>16.79450000000001</v>
       </c>
     </row>
     <row r="54">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.406299999999996</v>
+        <v>-8.415799999999997</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.8377</v>
+        <v>-7.6626</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1400,16 +1400,16 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.942599999999994</v>
+        <v>5.067899999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.319499999999996</v>
+        <v>-7.738500000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>16.6297</v>
+        <v>16.7438</v>
       </c>
     </row>
     <row r="58">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.001799999999998</v>
+        <v>4.895599999999996</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.54080000000001</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.46310000000002</v>
+        <v>17.45020000000003</v>
       </c>
     </row>
     <row r="64">
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.306199999999999</v>
+        <v>5.308499999999998</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.34330000000001</v>
+        <v>17.28220000000003</v>
       </c>
     </row>
     <row r="71">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.699199999999998</v>
+        <v>-7.925599999999996</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.415600000000007</v>
+        <v>9.066600000000005</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.5464</v>
+        <v>5.189699999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.55110000000001</v>
+        <v>16.5594</v>
       </c>
     </row>
     <row r="87">
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.707000000000003</v>
+        <v>-5.654900000000001</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.953300000000004</v>
+        <v>-8.2475</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>4.957299999999999</v>
+        <v>4.919899999999998</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-5.786800000000005</v>
+        <v>-5.732400000000001</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.637400000000001</v>
+        <v>5.744499999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.3801</v>
+        <v>15.65120000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.92950000000001</v>
+        <v>16.5893</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.70409999999999</v>
+        <v>16.65749999999998</v>
       </c>
     </row>
   </sheetData>
